--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
+    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="状态模型转换表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="115">
   <si>
     <t>Diconnected</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -33,26 +33,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SessionBoundCompleted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatAgreeCompleted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatEndCompleted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>App业务状态</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>事件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>界面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -65,6 +49,377 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>U1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppDataSync</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerDataSync</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgreeChat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RejectChat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndChat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssessAndContinue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssessAndQuit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnbindSession</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeavePool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disconnect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatchStart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OthersideEndChat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OthersideAgreeChat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OthersideRejectChat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OthersideLost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态转换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppSyncCompeleted</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatWaitView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatConfirmView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatVideoView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatAssessView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2-&gt;M3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3 Repeat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aloha</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M12 Repeat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay-&gt;M5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNORE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatchStarted</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatEnded</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SessionBoundAcknowledged</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SessionBound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认消息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>App消息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatAllAgreed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNORE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>S1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -89,71 +444,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>S7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>S1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>U1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppDataSync</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServerDataSync</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgreeChat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RejectChat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndChat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssessAndContinue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssessAndQuit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnbindSession</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S6</t>
+    <t>E1-&gt;S6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -161,338 +464,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeavePool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disconnect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MatchStart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SessionBind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OthersideEndChat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OthersideAgreeChat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OthersideRejectChat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OthersideLost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态转换</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppSyncCompeleted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI界面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConnectView</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomeView</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatWaitView</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatConfirmView</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatVideoView</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatAssessView</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M6-&gt;S7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M11-&gt;S4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2-&gt;M3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3 Repeat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aloha</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M12 Repeat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delay-&gt;M5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M11-&gt;S4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M8-&gt;S8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2/E4-&gt;S4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1-&gt;S7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MatchStartCompleted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IGNORE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认消息</t>
+    <t>E2/E4-&gt;S3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6-&gt;S6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M11-&gt;S3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8-&gt;S7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -647,8 +631,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -798,9 +786,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,8 +831,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="133">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -912,6 +900,8 @@
     <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -976,6 +966,8 @@
     <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1307,14 +1299,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
     <col min="5" max="8" width="7.1640625" customWidth="1"/>
@@ -1334,664 +1326,664 @@
     <col min="23" max="23" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1">
-      <c r="A1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:25" s="8" customFormat="1">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="B1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>107</v>
+      <c r="G3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
+      <c r="A4" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>107</v>
+        <v>78</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="X5" s="13"/>
+      <c r="F5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>107</v>
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="V8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>104</v>
+      <c r="Q8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>105</v>
+        <v>81</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>107</v>
+        <v>77</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -2001,229 +1993,229 @@
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:25" s="3" customFormat="1">
-      <c r="A12" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>8</v>
+      <c r="A12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1">
-      <c r="A20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>38</v>
+      <c r="A20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="5" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>7</v>
+      <c r="A36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="117">
   <si>
     <t>Diconnected</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>IGNORE</t>
+  </si>
+  <si>
+    <t>IGNORE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -477,6 +480,10 @@
   </si>
   <si>
     <t>M8-&gt;S7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNORE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -631,8 +638,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -835,7 +844,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="135">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -902,6 +911,7 @@
     <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -968,6 +978,7 @@
     <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1299,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1426,7 +1437,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1437,11 +1448,11 @@
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>84</v>
+      <c r="E3" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>84</v>
@@ -1497,7 +1508,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1509,13 +1520,13 @@
         <v>78</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>86</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>89</v>
@@ -1568,7 +1579,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -1580,7 +1591,7 @@
         <v>79</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>83</v>
@@ -1592,7 +1603,7 @@
         <v>89</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>84</v>
@@ -1640,7 +1651,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -1652,7 +1663,7 @@
         <v>82</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>83</v>
@@ -1667,7 +1678,7 @@
         <v>84</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>83</v>
@@ -1691,7 +1702,7 @@
         <v>83</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>83</v>
@@ -1713,7 +1724,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>90</v>
@@ -1722,7 +1733,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>83</v>
@@ -1761,10 +1772,10 @@
         <v>84</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>84</v>
@@ -1781,7 +1792,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>92</v>
@@ -1790,7 +1801,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>83</v>
@@ -1808,10 +1819,10 @@
         <v>84</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>84</v>
@@ -1823,7 +1834,7 @@
         <v>84</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>84</v>
@@ -1835,21 +1846,21 @@
         <v>84</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V8" s="12" t="s">
         <v>84</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>97</v>
@@ -1861,44 +1872,44 @@
         <v>81</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="R9" s="12" t="s">
         <v>84</v>
       </c>
@@ -1912,15 +1923,15 @@
         <v>84</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>91</v>
@@ -1929,7 +1940,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>83</v>
@@ -1956,11 +1967,11 @@
         <v>84</v>
       </c>
       <c r="N10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="O10" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="P10" s="12" t="s">
         <v>84</v>
       </c>
@@ -1979,11 +1990,11 @@
       <c r="U10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>84</v>
+      <c r="V10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:25">

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -638,8 +638,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -825,6 +827,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,11 +845,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="137">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -912,6 +914,7 @@
     <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -979,6 +982,7 @@
     <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1311,7 +1315,7 @@
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1338,45 +1342,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="8" customFormat="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="17"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="9" t="s">
         <v>39</v>
       </c>
@@ -1507,7 +1511,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1839,8 +1843,8 @@
       <c r="Q8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="12" t="s">
-        <v>84</v>
+      <c r="R8" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>84</v>

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="-25605" yWindow="0" windowWidth="25605" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="状态模型转换表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EnterPoolCompleted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>App业务状态</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -277,10 +273,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AppSyncCompeleted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UI界面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -388,10 +380,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SessionBoundAcknowledged</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SessionBound</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -485,13 +473,22 @@
   <si>
     <t>IGNORE</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppDataSynced</t>
+  </si>
+  <si>
+    <t>SessionBoundAcked</t>
+  </si>
+  <si>
+    <t>BusinessChoosed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -546,12 +543,14 @@
       <sz val="12"/>
       <color rgb="FF3366FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -847,6 +846,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="137">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -915,75 +915,74 @@
     <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1311,49 +1310,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.125" customWidth="1"/>
     <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="13" max="13" width="7.375" customWidth="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="15" width="7.125" customWidth="1"/>
     <col min="16" max="16" width="9.5" customWidth="1"/>
     <col min="17" max="18" width="6.5" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="19" max="19" width="8.375" customWidth="1"/>
+    <col min="20" max="20" width="7.625" customWidth="1"/>
     <col min="21" max="21" width="8" customWidth="1"/>
     <col min="22" max="22" width="6.5" customWidth="1"/>
-    <col min="23" max="23" width="7.33203125" customWidth="1"/>
+    <col min="23" max="23" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="8" customFormat="1">
       <c r="A1" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
@@ -1378,627 +1377,627 @@
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="R2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="J5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="T7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="Q8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="U8" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="O10" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -2009,228 +2008,228 @@
     </row>
     <row r="12" spans="1:25" s="3" customFormat="1">
       <c r="A12" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1">
       <c r="A20" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="5" customFormat="1">
       <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25605" yWindow="0" windowWidth="25605" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="状态模型转换表" sheetId="1" r:id="rId1"/>
@@ -487,8 +487,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -637,8 +637,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -845,8 +847,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="137">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="139">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -915,74 +916,77 @@
     <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1310,34 +1314,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="7.1640625" customWidth="1"/>
     <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="12" width="8.375" customWidth="1"/>
-    <col min="13" max="13" width="7.375" customWidth="1"/>
-    <col min="14" max="14" width="7.625" customWidth="1"/>
-    <col min="15" max="15" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" customWidth="1"/>
     <col min="16" max="16" width="9.5" customWidth="1"/>
     <col min="17" max="18" width="6.5" customWidth="1"/>
-    <col min="19" max="19" width="8.375" customWidth="1"/>
-    <col min="20" max="20" width="7.625" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
     <col min="21" max="21" width="8" customWidth="1"/>
     <col min="22" max="22" width="6.5" customWidth="1"/>
-    <col min="23" max="23" width="7.375" customWidth="1"/>
+    <col min="23" max="23" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="8" customFormat="1">
@@ -1608,8 +1612,8 @@
       <c r="I5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>82</v>
+      <c r="J5" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>82</v>

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="118">
   <si>
     <t>Diconnected</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EnterPool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>状态编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -105,10 +101,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LeavePool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>消息编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -482,6 +474,18 @@
   </si>
   <si>
     <t>BusinessChoosed</t>
+  </si>
+  <si>
+    <t>IGNORE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseBusiness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnchooseBusiness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1318,7 +1322,7 @@
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1346,17 +1350,17 @@
   <sheetData>
     <row r="1" spans="1:25" s="8" customFormat="1">
       <c r="A1" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
@@ -1381,627 +1385,627 @@
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="R2" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="S6" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="S7" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="11" t="s">
+      <c r="S8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="U8" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="Q8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="V8" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="R9" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="P10" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -2012,7 +2016,7 @@
     </row>
     <row r="12" spans="1:25" s="3" customFormat="1">
       <c r="A12" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>3</v>
@@ -2020,220 +2024,220 @@
     </row>
     <row r="13" spans="1:25" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1">
       <c r="A20" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="5" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -641,8 +641,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -851,7 +855,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="143">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -921,6 +925,8 @@
     <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -990,6 +996,8 @@
     <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1321,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1643,8 +1651,8 @@
       <c r="R5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="12" t="s">
-        <v>80</v>
+      <c r="S5" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>80</v>

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -641,8 +641,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -855,7 +857,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="145">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -927,6 +929,7 @@
     <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -998,6 +1001,7 @@
     <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1329,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1723,8 +1727,8 @@
       <c r="R6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="S6" s="12" t="s">
-        <v>79</v>
+      <c r="S6" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>79</v>

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="状态模型转换表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="125">
   <si>
     <t>Diconnected</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -485,6 +485,34 @@
   </si>
   <si>
     <t>UnchooseBusiness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OthersideChatMessage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatMessage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M14</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -641,8 +669,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -857,7 +903,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="163">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -930,6 +976,15 @@
     <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1002,6 +1057,15 @@
     <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1331,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1352,15 +1416,16 @@
     <col min="14" max="14" width="7.6640625" customWidth="1"/>
     <col min="15" max="15" width="7.1640625" customWidth="1"/>
     <col min="16" max="16" width="9.5" customWidth="1"/>
-    <col min="17" max="18" width="6.5" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
-    <col min="21" max="21" width="8" customWidth="1"/>
-    <col min="22" max="22" width="6.5" customWidth="1"/>
-    <col min="23" max="23" width="7.33203125" customWidth="1"/>
+    <col min="17" max="19" width="6.5" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="8" customWidth="1"/>
+    <col min="23" max="23" width="6.5" customWidth="1"/>
+    <col min="24" max="24" width="7.33203125" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="8" customFormat="1">
+    <row r="1" spans="1:26" s="8" customFormat="1">
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
@@ -1392,8 +1457,9 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="22"/>
-    </row>
-    <row r="2" spans="1:25" s="3" customFormat="1">
+      <c r="X1" s="22"/>
+    </row>
+    <row r="2" spans="1:26" s="3" customFormat="1">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="18" t="s">
@@ -1442,23 +1508,29 @@
       <c r="R2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Y2" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
@@ -1528,8 +1600,14 @@
       <c r="W3" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="X3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="19" t="s">
         <v>96</v>
       </c>
@@ -1599,8 +1677,14 @@
       <c r="W4" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="X4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
@@ -1655,12 +1739,12 @@
       <c r="R5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="U5" s="12" t="s">
         <v>80</v>
       </c>
@@ -1670,9 +1754,14 @@
       <c r="W5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="X5" s="12"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="X5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
@@ -1727,12 +1816,12 @@
       <c r="R6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
@@ -1742,10 +1831,15 @@
       <c r="W6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="X6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
         <v>99</v>
       </c>
@@ -1797,12 +1891,12 @@
       <c r="R7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="U7" s="12" t="s">
         <v>80</v>
       </c>
@@ -1812,8 +1906,14 @@
       <c r="W7" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="X7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
@@ -1866,22 +1966,28 @@
         <v>97</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="V8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="W8" s="11" t="s">
+      <c r="W8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Y8" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
@@ -1936,8 +2042,8 @@
       <c r="R9" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="S9" s="12" t="s">
-        <v>80</v>
+      <c r="S9" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>80</v>
@@ -1945,14 +2051,20 @@
       <c r="U9" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="V9" s="11" t="s">
-        <v>110</v>
+      <c r="V9" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="W9" s="11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="X9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
@@ -2013,20 +2125,27 @@
       <c r="U10" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="V10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="W10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="X10" s="15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Y10" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="K11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:25" s="3" customFormat="1">
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" s="3" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>63</v>
       </c>
@@ -2034,7 +2153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="3" customFormat="1">
+    <row r="13" spans="1:26" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>64</v>
       </c>
@@ -2042,7 +2161,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="3" customFormat="1">
+    <row r="14" spans="1:26" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2050,7 +2169,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="3" customFormat="1">
+    <row r="15" spans="1:26" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2058,7 +2177,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="3" customFormat="1">
+    <row r="16" spans="1:26" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -2203,59 +2322,75 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="10" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B37" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:W1"/>
+    <mergeCell ref="E1:X1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="状态模型转换表" sheetId="1" r:id="rId1"/>
@@ -669,8 +669,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="163">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -903,7 +905,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="163">
+  <cellStyles count="165">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -985,6 +987,7 @@
     <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1066,6 +1069,7 @@
     <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1397,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1864,8 +1868,8 @@
       <c r="I7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>80</v>
+      <c r="J7" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>80</v>

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -669,8 +669,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -905,7 +907,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="167">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -988,6 +990,7 @@
     <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1070,6 +1073,7 @@
     <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1402,7 +1406,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1865,8 +1869,8 @@
       <c r="H7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>80</v>
+      <c r="I7" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>85</v>

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="124">
   <si>
     <t>Diconnected</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -345,10 +345,6 @@
   </si>
   <si>
     <t>M13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -669,8 +665,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -907,7 +909,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="173">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -991,6 +993,9 @@
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1074,6 +1079,9 @@
     <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1406,7 +1414,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1442,7 +1450,7 @@
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>60</v>
@@ -1478,10 +1486,10 @@
         <v>36</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>33</v>
@@ -1517,7 +1525,7 @@
         <v>81</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>55</v>
@@ -1535,12 +1543,12 @@
         <v>59</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1552,10 +1560,10 @@
         <v>32</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>80</v>
@@ -1617,7 +1625,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1629,16 +1637,16 @@
         <v>74</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>82</v>
+        <v>94</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>80</v>
@@ -1694,10 +1702,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1706,22 +1714,22 @@
         <v>75</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>79</v>
+        <v>94</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>80</v>
@@ -1751,7 +1759,7 @@
         <v>80</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>80</v>
@@ -1771,10 +1779,10 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>72</v>
@@ -1783,7 +1791,7 @@
         <v>78</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>79</v>
@@ -1798,7 +1806,7 @@
         <v>80</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>79</v>
@@ -1822,13 +1830,13 @@
         <v>79</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>80</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
@@ -1849,16 +1857,16 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>79</v>
@@ -1870,10 +1878,10 @@
         <v>79</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>80</v>
@@ -1897,13 +1905,13 @@
         <v>80</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>79</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>80</v>
@@ -1923,16 +1931,16 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>79</v>
@@ -1950,11 +1958,11 @@
         <v>80</v>
       </c>
       <c r="K8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="M8" s="12" t="s">
         <v>80</v>
       </c>
@@ -1965,42 +1973,42 @@
         <v>80</v>
       </c>
       <c r="P8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="U8" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="V8" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="W8" s="12" t="s">
         <v>80</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -2009,7 +2017,7 @@
         <v>77</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>79</v>
@@ -2033,7 +2041,7 @@
         <v>80</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>80</v>
@@ -2045,13 +2053,13 @@
         <v>80</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>80</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>80</v>
@@ -2063,27 +2071,27 @@
         <v>80</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y9" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>79</v>
@@ -2110,10 +2118,10 @@
         <v>80</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>80</v>
@@ -2137,13 +2145,13 @@
         <v>80</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2214,7 +2222,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="5" customFormat="1">
@@ -2255,7 +2263,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2327,15 +2335,15 @@
         <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2343,7 +2351,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -2352,7 +2360,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2389,10 +2397,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -665,8 +665,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -909,7 +911,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="175">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -996,6 +998,7 @@
     <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1082,6 +1085,7 @@
     <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1414,7 +1418,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1565,62 +1569,62 @@
       <c r="F3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>80</v>
+      <c r="G3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:26">

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -665,8 +665,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -911,7 +915,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="175">
+  <cellStyles count="179">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -999,6 +1003,8 @@
     <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1086,6 +1092,8 @@
     <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1418,7 +1426,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1673,8 +1681,8 @@
       <c r="O4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>80</v>
+      <c r="P4" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>80</v>

--- a/Design/App状态模型转换表.xlsx
+++ b/Design/App状态模型转换表.xlsx
@@ -665,8 +665,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -915,7 +919,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="183">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1005,6 +1009,8 @@
     <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1094,6 +1100,8 @@
     <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1426,7 +1434,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1660,11 +1668,11 @@
       <c r="H4" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>80</v>
+      <c r="I4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>80</v>
@@ -1693,8 +1701,8 @@
       <c r="S4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>80</v>
+      <c r="T4" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>80</v>
